--- a/old_database/crypto/fastqFiles/fastq_2002.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_2002.xlsx
@@ -40,7 +40,7 @@
     <t>2.1.17</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_2002</t>
   </si>
   <si>
     <t>sequence/run_2002_samples/2002_Brent_A_TGAGGTT_S2_R1_001.fastq.gz</t>
